--- a/source_data/oecd_vat_revenue_ratio_calculations.xlsx
+++ b/source_data/oecd_vat_revenue_ratio_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23157A87-D0E4-462A-8EFB-7950A23FA01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04BC8D0-12BF-46BB-8FBA-A82E03B465E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1114,17 +1114,58 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1134,18 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1167,35 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1586,132 +1586,132 @@
     </row>
     <row r="5" spans="1:28" s="71" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="85">
         <v>1976</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="85">
         <v>1980</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="85">
         <v>1984</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="85">
         <v>1988</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="85">
         <v>1992</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="85">
         <v>1996</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="85">
         <v>2000</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="85">
         <v>2005</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="85">
         <v>2006</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="85">
         <v>2007</v>
       </c>
-      <c r="M7" s="75">
+      <c r="M7" s="85">
         <v>2008</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="85">
         <v>2009</v>
       </c>
-      <c r="O7" s="75">
+      <c r="O7" s="85">
         <v>2010</v>
       </c>
-      <c r="P7" s="75">
+      <c r="P7" s="85">
         <v>2011</v>
       </c>
-      <c r="Q7" s="75">
+      <c r="Q7" s="85">
         <v>2012</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="85">
         <v>2013</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="85">
         <v>2014</v>
       </c>
-      <c r="T7" s="75">
+      <c r="T7" s="85">
         <v>2015</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="85">
         <v>2016</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="85">
         <v>2017</v>
       </c>
-      <c r="W7" s="75">
+      <c r="W7" s="85">
         <v>2018</v>
       </c>
-      <c r="X7" s="82" t="s">
+      <c r="X7" s="88" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="83"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="89"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -2054,11 +2054,11 @@
         <f>Sheet2!T11/((Sheet4!T12*Sheet5!T12)/100)</f>
         <v>0.47450320707993338</v>
       </c>
-      <c r="V12" s="101">
+      <c r="V12" s="83">
         <f>Sheet2!U11/((Sheet4!U12*Sheet5!U12)/100)</f>
         <v>0.48921726089661449</v>
       </c>
-      <c r="W12" s="101">
+      <c r="W12" s="83">
         <f>Sheet2!V11/((Sheet4!V12*Sheet5!V12)/100)</f>
         <v>0.48868222341477263</v>
       </c>
@@ -4928,191 +4928,176 @@
       <c r="X46" s="4"/>
     </row>
     <row r="47" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
     </row>
     <row r="49" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="87"/>
+      <c r="V49" s="87"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="87"/>
     </row>
     <row r="50" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="87"/>
     </row>
     <row r="51" spans="1:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-      <c r="T51" s="74"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="74"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="74"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
     </row>
     <row r="52" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
+      <c r="U52" s="84"/>
+      <c r="V52" s="84"/>
+      <c r="W52" s="84"/>
+      <c r="X52" s="84"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A48:X48"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
     <mergeCell ref="A6:X6"/>
     <mergeCell ref="A51:X51"/>
     <mergeCell ref="J7:J8"/>
@@ -5129,6 +5114,21 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="R7:R8"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A48:X48"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://doi.org/10.1787/ctt-2018-en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5147,8 +5147,8 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T11" sqref="T11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5184,26 +5184,26 @@
     </row>
     <row r="5" spans="1:22" s="71" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
@@ -5266,10 +5266,10 @@
       <c r="T7" s="58">
         <v>2016</v>
       </c>
-      <c r="U7" s="91">
+      <c r="U7" s="73">
         <v>2017</v>
       </c>
-      <c r="V7" s="91">
+      <c r="V7" s="73">
         <v>2018</v>
       </c>
     </row>
@@ -5334,10 +5334,10 @@
       <c r="T8" s="65">
         <v>62727</v>
       </c>
-      <c r="U8" s="92">
+      <c r="U8" s="74">
         <v>64062</v>
       </c>
-      <c r="V8" s="92" t="s">
+      <c r="V8" s="74" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5402,10 +5402,10 @@
       <c r="T9" s="61">
         <v>27306.185914229998</v>
       </c>
-      <c r="U9" s="93">
+      <c r="U9" s="75">
         <v>28311.952999999998</v>
       </c>
-      <c r="V9" s="93">
+      <c r="V9" s="75">
         <v>29324.905999999999</v>
       </c>
     </row>
@@ -5470,10 +5470,10 @@
       <c r="T10" s="63">
         <v>28721.5</v>
       </c>
-      <c r="U10" s="92">
+      <c r="U10" s="74">
         <v>29762.899999999998</v>
       </c>
-      <c r="V10" s="92">
+      <c r="V10" s="74">
         <v>31053</v>
       </c>
     </row>
@@ -5538,10 +5538,10 @@
       <c r="T11" s="68">
         <v>37403</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U11" s="75">
         <v>40222</v>
       </c>
-      <c r="V11" s="93">
+      <c r="V11" s="75">
         <v>41843</v>
       </c>
     </row>
@@ -5606,10 +5606,10 @@
       <c r="T12" s="66">
         <v>14073050</v>
       </c>
-      <c r="U12" s="92">
+      <c r="U12" s="74">
         <v>15069540</v>
       </c>
-      <c r="V12" s="92">
+      <c r="V12" s="74">
         <v>16211646.289000001</v>
       </c>
     </row>
@@ -5672,10 +5672,10 @@
       <c r="T13" s="68">
         <v>353915.19833113003</v>
       </c>
-      <c r="U13" s="92">
+      <c r="U13" s="74">
         <v>387536.78399999999</v>
       </c>
-      <c r="V13" s="92">
+      <c r="V13" s="74">
         <v>408538.342</v>
       </c>
     </row>
@@ -5740,10 +5740,10 @@
       <c r="T14" s="66">
         <v>195132.96315188002</v>
       </c>
-      <c r="U14" s="93">
+      <c r="U14" s="75">
         <v>205921.603</v>
       </c>
-      <c r="V14" s="93">
+      <c r="V14" s="75">
         <v>214773.508</v>
       </c>
     </row>
@@ -5808,10 +5808,10 @@
       <c r="T15" s="68">
         <v>1974.3</v>
       </c>
-      <c r="U15" s="92">
+      <c r="U15" s="74">
         <v>2148.2999999999997</v>
       </c>
-      <c r="V15" s="92">
+      <c r="V15" s="74">
         <v>2330.17</v>
       </c>
     </row>
@@ -5876,10 +5876,10 @@
       <c r="T16" s="66">
         <v>19694</v>
       </c>
-      <c r="U16" s="93">
+      <c r="U16" s="75">
         <v>20404</v>
       </c>
-      <c r="V16" s="93">
+      <c r="V16" s="75">
         <v>21364</v>
       </c>
     </row>
@@ -5944,10 +5944,10 @@
       <c r="T17" s="68">
         <v>154156.78668609701</v>
       </c>
-      <c r="U17" s="92">
+      <c r="U17" s="74">
         <v>161749.375</v>
       </c>
-      <c r="V17" s="92">
+      <c r="V17" s="74">
         <v>168710.34</v>
       </c>
     </row>
@@ -6012,10 +6012,10 @@
       <c r="T18" s="66">
         <v>219105</v>
       </c>
-      <c r="U18" s="93">
+      <c r="U18" s="75">
         <v>226901</v>
       </c>
-      <c r="V18" s="93">
+      <c r="V18" s="75">
         <v>235449</v>
       </c>
     </row>
@@ -6080,10 +6080,10 @@
       <c r="T19" s="68">
         <v>14333</v>
       </c>
-      <c r="U19" s="92">
+      <c r="U19" s="74">
         <v>14642</v>
       </c>
-      <c r="V19" s="92" t="s">
+      <c r="V19" s="74" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6148,10 +6148,10 @@
       <c r="T20" s="66">
         <v>3297156</v>
       </c>
-      <c r="U20" s="93">
+      <c r="U20" s="75">
         <v>3625111</v>
       </c>
-      <c r="V20" s="93">
+      <c r="V20" s="75">
         <v>3928686</v>
       </c>
     </row>
@@ -6216,10 +6216,10 @@
       <c r="T21" s="68">
         <v>205434.96818373</v>
       </c>
-      <c r="U21" s="92">
+      <c r="U21" s="74">
         <v>233950.70600000001</v>
       </c>
-      <c r="V21" s="92">
+      <c r="V21" s="74">
         <v>233900</v>
       </c>
     </row>
@@ -6284,10 +6284,10 @@
       <c r="T22" s="66">
         <v>12826.4</v>
       </c>
-      <c r="U22" s="93">
+      <c r="U22" s="75">
         <v>13111.348</v>
       </c>
-      <c r="V22" s="93">
+      <c r="V22" s="75">
         <v>14134.404</v>
       </c>
     </row>
@@ -6352,10 +6352,10 @@
       <c r="T23" s="68">
         <v>91998.599999999991</v>
       </c>
-      <c r="U23" s="92">
+      <c r="U23" s="74">
         <v>94531.199999999997</v>
       </c>
-      <c r="V23" s="92">
+      <c r="V23" s="74">
         <v>100452</v>
       </c>
     </row>
@@ -6420,10 +6420,10 @@
       <c r="T24" s="66">
         <v>102957</v>
       </c>
-      <c r="U24" s="93">
+      <c r="U24" s="75">
         <v>107901</v>
       </c>
-      <c r="V24" s="93">
+      <c r="V24" s="75">
         <v>109210</v>
       </c>
     </row>
@@ -6488,10 +6488,10 @@
       <c r="T25" s="68">
         <v>21931000</v>
       </c>
-      <c r="U25" s="92">
+      <c r="U25" s="74">
         <v>22249200</v>
       </c>
-      <c r="V25" s="92">
+      <c r="V25" s="74">
         <v>22530800</v>
       </c>
     </row>
@@ -6556,10 +6556,10 @@
       <c r="T26" s="63">
         <v>68229000</v>
       </c>
-      <c r="U26" s="93">
+      <c r="U26" s="75">
         <v>74361000</v>
       </c>
-      <c r="V26" s="93">
+      <c r="V26" s="75">
         <v>77471000</v>
       </c>
     </row>
@@ -6624,10 +6624,10 @@
       <c r="T27" s="54">
         <v>2031.96299221</v>
       </c>
-      <c r="U27" s="92">
+      <c r="U27" s="74">
         <v>2163.739</v>
       </c>
-      <c r="V27" s="92">
+      <c r="V27" s="74">
         <v>2449.096</v>
       </c>
     </row>
@@ -6684,10 +6684,10 @@
       <c r="T28" s="63">
         <v>3026.2815999999998</v>
       </c>
-      <c r="U28" s="93">
+      <c r="U28" s="75">
         <v>3309.6</v>
       </c>
-      <c r="V28" s="93">
+      <c r="V28" s="75">
         <v>3519.8849999999998</v>
       </c>
     </row>
@@ -6752,10 +6752,10 @@
       <c r="T29" s="68">
         <v>3368.0036438459001</v>
       </c>
-      <c r="U29" s="92">
+      <c r="U29" s="74">
         <v>3402.9780000000001</v>
       </c>
-      <c r="V29" s="92">
+      <c r="V29" s="74">
         <v>3727.991</v>
       </c>
     </row>
@@ -6820,10 +6820,10 @@
       <c r="T30" s="63">
         <v>791700.2</v>
       </c>
-      <c r="U30" s="93">
+      <c r="U30" s="75">
         <v>816048.1</v>
       </c>
-      <c r="V30" s="93">
+      <c r="V30" s="75">
         <v>922238.29999999993</v>
       </c>
     </row>
@@ -6888,10 +6888,10 @@
       <c r="T31" s="54">
         <v>47849</v>
       </c>
-      <c r="U31" s="92">
+      <c r="U31" s="74">
         <v>49833</v>
       </c>
-      <c r="V31" s="92">
+      <c r="V31" s="74">
         <v>52619</v>
       </c>
     </row>
@@ -6956,10 +6956,10 @@
       <c r="T32" s="63">
         <v>25847</v>
       </c>
-      <c r="U32" s="93">
+      <c r="U32" s="75">
         <v>27951</v>
       </c>
-      <c r="V32" s="93">
+      <c r="V32" s="75">
         <v>29475</v>
       </c>
     </row>
@@ -7024,10 +7024,10 @@
       <c r="T33" s="54">
         <v>269215</v>
       </c>
-      <c r="U33" s="92">
+      <c r="U33" s="74">
         <v>282784</v>
       </c>
-      <c r="V33" s="92">
+      <c r="V33" s="74">
         <v>300005</v>
       </c>
     </row>
@@ -7092,10 +7092,10 @@
       <c r="T34" s="63">
         <v>131005</v>
       </c>
-      <c r="U34" s="93">
+      <c r="U34" s="75">
         <v>154656</v>
       </c>
-      <c r="V34" s="93">
+      <c r="V34" s="75">
         <v>172210</v>
       </c>
     </row>
@@ -7160,10 +7160,10 @@
       <c r="T35" s="54">
         <v>15769.891</v>
       </c>
-      <c r="U35" s="92">
+      <c r="U35" s="74">
         <v>16809.218999999997</v>
       </c>
-      <c r="V35" s="92">
+      <c r="V35" s="74">
         <v>17849.616000000002</v>
       </c>
     </row>
@@ -7228,10 +7228,10 @@
       <c r="T36" s="63">
         <v>5419.65</v>
       </c>
-      <c r="U36" s="93">
+      <c r="U36" s="75">
         <v>5916.5889999999999</v>
       </c>
-      <c r="V36" s="93">
+      <c r="V36" s="75">
         <v>6325.9800000000005</v>
       </c>
     </row>
@@ -7296,10 +7296,10 @@
       <c r="T37" s="54">
         <v>3318.5519730145998</v>
       </c>
-      <c r="U37" s="92">
+      <c r="U37" s="74">
         <v>3483.1990000000001</v>
       </c>
-      <c r="V37" s="92">
+      <c r="V37" s="74">
         <v>3766.6770000000001</v>
       </c>
     </row>
@@ -7364,10 +7364,10 @@
       <c r="T38" s="63">
         <v>70929.933125084397</v>
       </c>
-      <c r="U38" s="93">
+      <c r="U38" s="75">
         <v>75124.346000000005</v>
       </c>
-      <c r="V38" s="93">
+      <c r="V38" s="75">
         <v>79587.429000000004</v>
       </c>
     </row>
@@ -7432,10 +7432,10 @@
       <c r="T39" s="54">
         <v>404987.40775891003</v>
       </c>
-      <c r="U39" s="92">
+      <c r="U39" s="74">
         <v>425052.69</v>
       </c>
-      <c r="V39" s="92">
+      <c r="V39" s="74">
         <v>445038.26900000003</v>
       </c>
     </row>
@@ -7500,10 +7500,10 @@
       <c r="T40" s="63">
         <v>22406</v>
       </c>
-      <c r="U40" s="93">
+      <c r="U40" s="75">
         <v>22797.208999999999</v>
       </c>
-      <c r="V40" s="93">
+      <c r="V40" s="75">
         <v>22782.539000000001</v>
       </c>
     </row>
@@ -7568,10 +7568,10 @@
       <c r="T41" s="54">
         <v>130822.451</v>
       </c>
-      <c r="U41" s="92">
+      <c r="U41" s="74">
         <v>155679.50200000001</v>
       </c>
-      <c r="V41" s="92">
+      <c r="V41" s="74">
         <v>178466.18699999998</v>
       </c>
     </row>
@@ -7636,32 +7636,32 @@
       <c r="T42" s="63">
         <v>133856</v>
       </c>
-      <c r="U42" s="93">
+      <c r="U42" s="75">
         <v>141336</v>
       </c>
-      <c r="V42" s="93">
+      <c r="V42" s="75">
         <v>149238</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="45" t="s">
@@ -7701,29 +7701,29 @@
   </sheetPr>
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.86328125" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1328125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.73046875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1328125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="11.73046875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.1328125" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" customWidth="1"/>
+    <col min="16" max="18" width="11.73046875" customWidth="1"/>
+    <col min="19" max="19" width="9.06640625" customWidth="1"/>
     <col min="20" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7753,26 +7753,26 @@
     </row>
     <row r="5" spans="1:22" s="71" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
@@ -7945,10 +7945,10 @@
       <c r="T9">
         <v>1328208</v>
       </c>
-      <c r="U9" s="92">
+      <c r="U9" s="74">
         <v>1389112</v>
       </c>
-      <c r="V9" s="92">
+      <c r="V9" s="74">
         <v>1449849</v>
       </c>
     </row>
@@ -8013,10 +8013,10 @@
       <c r="T10">
         <v>256636.22</v>
       </c>
-      <c r="U10" s="93">
+      <c r="U10" s="75">
         <v>265534.05</v>
       </c>
-      <c r="V10" s="93">
+      <c r="V10" s="75">
         <v>274182.17</v>
       </c>
     </row>
@@ -8081,10 +8081,10 @@
       <c r="T11">
         <v>315814.40000000002</v>
       </c>
-      <c r="U11" s="92">
+      <c r="U11" s="74">
         <v>332215.40000000002</v>
       </c>
-      <c r="V11" s="92">
+      <c r="V11" s="74">
         <v>343216</v>
       </c>
     </row>
@@ -8139,10 +8139,10 @@
       <c r="T12">
         <v>1613915</v>
       </c>
-      <c r="U12" s="93">
+      <c r="U12" s="75">
         <v>1684563</v>
       </c>
-      <c r="V12" s="93">
+      <c r="V12" s="75">
         <v>1754326</v>
       </c>
     </row>
@@ -8207,10 +8207,10 @@
       <c r="T13">
         <v>130163457.09999999</v>
       </c>
-      <c r="U13" s="92">
+      <c r="U13" s="74">
         <v>139347094.646</v>
       </c>
-      <c r="V13" s="92">
+      <c r="V13" s="74">
         <v>149028141.183</v>
       </c>
     </row>
@@ -8275,10 +8275,10 @@
       <c r="T14">
         <v>3161351</v>
       </c>
-      <c r="U14" s="92">
+      <c r="U14" s="74">
         <v>3361670</v>
       </c>
-      <c r="V14" s="92">
+      <c r="V14" s="74">
         <v>3584841</v>
       </c>
     </row>
@@ -8343,10 +8343,10 @@
       <c r="T15">
         <v>1504610</v>
       </c>
-      <c r="U15" s="93">
+      <c r="U15" s="75">
         <v>1547689.1529999999</v>
       </c>
-      <c r="V15" s="93">
+      <c r="V15" s="75">
         <v>1594548.8259999999</v>
       </c>
     </row>
@@ -8411,10 +8411,10 @@
       <c r="T16">
         <v>15531.244000000001</v>
       </c>
-      <c r="U16" s="92">
+      <c r="U16" s="74">
         <v>16682.1826</v>
       </c>
-      <c r="V16" s="92">
+      <c r="V16" s="74">
         <v>18038.300500000001</v>
       </c>
     </row>
@@ -8479,10 +8479,10 @@
       <c r="T17">
         <v>170567</v>
       </c>
-      <c r="U17" s="93">
+      <c r="U17" s="75">
         <v>171730</v>
       </c>
-      <c r="V17" s="93">
+      <c r="V17" s="75">
         <v>177129</v>
       </c>
     </row>
@@ -8547,10 +8547,10 @@
       <c r="T18">
         <v>1741229</v>
       </c>
-      <c r="U18" s="92">
+      <c r="U18" s="74">
         <v>1783312</v>
       </c>
-      <c r="V18" s="92">
+      <c r="V18" s="74">
         <v>1821722</v>
       </c>
     </row>
@@ -8615,10 +8615,10 @@
       <c r="T19">
         <v>2291063</v>
       </c>
-      <c r="U19" s="93">
+      <c r="U19" s="75">
         <v>2341306</v>
       </c>
-      <c r="V19" s="93">
+      <c r="V19" s="75">
         <v>2409282</v>
       </c>
     </row>
@@ -8683,10 +8683,10 @@
       <c r="T20">
         <v>156975.38320000001</v>
       </c>
-      <c r="U20" s="92">
+      <c r="U20" s="74">
         <v>159511.01850000001</v>
       </c>
-      <c r="V20" s="92">
+      <c r="V20" s="74">
         <v>160976.6814</v>
       </c>
     </row>
@@ -8751,10 +8751,10 @@
       <c r="T21">
         <v>24827828</v>
       </c>
-      <c r="U21" s="93">
+      <c r="U21" s="75">
         <v>27131278</v>
       </c>
-      <c r="V21" s="93">
+      <c r="V21" s="75">
         <v>29180878</v>
       </c>
     </row>
@@ -8819,10 +8819,10 @@
       <c r="T22">
         <v>1770805.3554</v>
       </c>
-      <c r="U22" s="92">
+      <c r="U22" s="74">
         <v>1931795.1202</v>
       </c>
-      <c r="V22" s="92">
+      <c r="V22" s="74">
         <v>2091383.2923999999</v>
       </c>
     </row>
@@ -8887,10 +8887,10 @@
       <c r="T23">
         <v>124688.36169999999</v>
       </c>
-      <c r="U23" s="93">
+      <c r="U23" s="75">
         <v>131179.1936</v>
       </c>
-      <c r="V23" s="93">
+      <c r="V23" s="75">
         <v>139086.54990000001</v>
       </c>
     </row>
@@ -8955,10 +8955,10 @@
       <c r="T24">
         <v>947545.14170000004</v>
       </c>
-      <c r="U24" s="92">
+      <c r="U24" s="74">
         <v>983337.93969999999</v>
       </c>
-      <c r="V24" s="92">
+      <c r="V24" s="74">
         <v>1034801.8861999999</v>
       </c>
     </row>
@@ -9023,10 +9023,10 @@
       <c r="T25">
         <v>1338542.3999999999</v>
       </c>
-      <c r="U25" s="93">
+      <c r="U25" s="75">
         <v>1373343.5</v>
       </c>
-      <c r="V25" s="93">
+      <c r="V25" s="75">
         <v>1400295.9</v>
       </c>
     </row>
@@ -9083,10 +9083,10 @@
       <c r="T26">
         <v>406681600</v>
       </c>
-      <c r="U26" s="92">
+      <c r="U26" s="74">
         <v>409748900</v>
       </c>
-      <c r="V26" s="92">
+      <c r="V26" s="74">
         <v>412763100</v>
       </c>
     </row>
@@ -9151,10 +9151,10 @@
       <c r="T27">
         <v>1047895800</v>
       </c>
-      <c r="U27" s="93">
+      <c r="U27" s="75">
         <v>1155837200</v>
       </c>
-      <c r="V27" s="93">
+      <c r="V27" s="75">
         <v>1213786700</v>
       </c>
     </row>
@@ -9219,10 +9219,10 @@
       <c r="T28">
         <v>19559.446</v>
       </c>
-      <c r="U28" s="92">
+      <c r="U28" s="74">
         <v>20919.885999999999</v>
       </c>
-      <c r="V28" s="92">
+      <c r="V28" s="74">
         <v>22442.563999999998</v>
       </c>
     </row>
@@ -9275,10 +9275,10 @@
       <c r="T29">
         <v>31470.856500000002</v>
       </c>
-      <c r="U29" s="93">
+      <c r="U29" s="75">
         <v>33162.791799999999</v>
       </c>
-      <c r="V29" s="93">
+      <c r="V29" s="75">
         <v>35423.0236</v>
       </c>
     </row>
@@ -9343,10 +9343,10 @@
       <c r="T30">
         <v>24885.794999999998</v>
       </c>
-      <c r="U30" s="92">
+      <c r="U30" s="74">
         <v>26270.987000000001</v>
       </c>
-      <c r="V30" s="92">
+      <c r="V30" s="74">
         <v>27878.484</v>
       </c>
     </row>
@@ -9411,10 +9411,10 @@
       <c r="T31">
         <v>15600698.218</v>
       </c>
-      <c r="U31" s="93">
+      <c r="U31" s="75">
         <v>16849248.717</v>
       </c>
-      <c r="V31" s="93">
+      <c r="V31" s="75">
         <v>17955717.837000001</v>
       </c>
     </row>
@@ -9479,10 +9479,10 @@
       <c r="T32">
         <v>490883</v>
       </c>
-      <c r="U32" s="92">
+      <c r="U32" s="74">
         <v>506752</v>
       </c>
-      <c r="V32" s="92">
+      <c r="V32" s="74">
         <v>529064</v>
       </c>
     </row>
@@ -9547,10 +9547,10 @@
       <c r="T33">
         <v>206802</v>
       </c>
-      <c r="U33" s="93">
+      <c r="U33" s="75">
         <v>216964</v>
       </c>
-      <c r="V33" s="93">
+      <c r="V33" s="75">
         <v>228213</v>
       </c>
     </row>
@@ -9615,10 +9615,10 @@
       <c r="T34">
         <v>2172059</v>
       </c>
-      <c r="U34" s="92">
+      <c r="U34" s="74">
         <v>2262747</v>
       </c>
-      <c r="V34" s="92">
+      <c r="V34" s="74">
         <v>2360347</v>
       </c>
     </row>
@@ -9683,10 +9683,10 @@
       <c r="T35">
         <v>1421457</v>
       </c>
-      <c r="U35" s="93">
+      <c r="U35" s="75">
         <v>1511905</v>
       </c>
-      <c r="V35" s="93">
+      <c r="V35" s="75">
         <v>1608935</v>
       </c>
     </row>
@@ -9751,10 +9751,10 @@
       <c r="T36">
         <v>155085.755</v>
       </c>
-      <c r="U36" s="92">
+      <c r="U36" s="74">
         <v>160214.04699999999</v>
       </c>
-      <c r="V36" s="92">
+      <c r="V36" s="74">
         <v>166482.068</v>
       </c>
     </row>
@@ -9819,10 +9819,10 @@
       <c r="T37">
         <v>60111.589</v>
       </c>
-      <c r="U37" s="93">
+      <c r="U37" s="75">
         <v>63268.103000000003</v>
       </c>
-      <c r="V37" s="93">
+      <c r="V37" s="75">
         <v>67038.058000000005</v>
       </c>
     </row>
@@ -9887,10 +9887,10 @@
       <c r="T38">
         <v>29159.072499999998</v>
       </c>
-      <c r="U38" s="92">
+      <c r="U38" s="74">
         <v>30499.361700000001</v>
       </c>
-      <c r="V38" s="92">
+      <c r="V38" s="74">
         <v>32139.619900000002</v>
       </c>
     </row>
@@ -9955,10 +9955,10 @@
       <c r="T39">
         <v>854822</v>
       </c>
-      <c r="U39" s="93">
+      <c r="U39" s="75">
         <v>894561</v>
       </c>
-      <c r="V39" s="93">
+      <c r="V39" s="75">
         <v>924621</v>
       </c>
     </row>
@@ -10023,10 +10023,10 @@
       <c r="T40">
         <v>3116138</v>
       </c>
-      <c r="U40" s="92">
+      <c r="U40" s="74">
         <v>3318070</v>
       </c>
-      <c r="V40" s="92">
+      <c r="V40" s="74">
         <v>3464632</v>
       </c>
     </row>
@@ -10091,10 +10091,10 @@
       <c r="T41">
         <v>432724</v>
       </c>
-      <c r="U41" s="93">
+      <c r="U41" s="75">
         <v>440182.60019999999</v>
       </c>
-      <c r="V41" s="93">
+      <c r="V41" s="75">
         <v>448701.78029999998</v>
       </c>
     </row>
@@ -10159,10 +10159,10 @@
       <c r="T42">
         <v>1947495.112</v>
       </c>
-      <c r="U42" s="92">
+      <c r="U42" s="74">
         <v>2286864.409</v>
       </c>
-      <c r="V42" s="92">
+      <c r="V42" s="74">
         <v>2663608.9019999998</v>
       </c>
     </row>
@@ -10227,32 +10227,32 @@
       <c r="T43">
         <v>1660564</v>
       </c>
-      <c r="U43" s="93">
+      <c r="U43" s="75">
         <v>1733532</v>
       </c>
-      <c r="V43" s="93">
+      <c r="V43" s="75">
         <v>1800233</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10276,8 +10276,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9:V43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10322,18 +10322,18 @@
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
@@ -13406,8 +13406,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -13440,50 +13440,50 @@
     </row>
     <row r="5" spans="1:22" s="71" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
@@ -13546,10 +13546,10 @@
       <c r="T8" s="35">
         <v>2016</v>
       </c>
-      <c r="U8" s="94">
+      <c r="U8" s="76">
         <v>2017</v>
       </c>
-      <c r="V8" s="94">
+      <c r="V8" s="76">
         <v>2018</v>
       </c>
     </row>
@@ -13614,10 +13614,10 @@
       <c r="T9" s="36">
         <v>10</v>
       </c>
-      <c r="U9" s="95">
+      <c r="U9" s="77">
         <v>10</v>
       </c>
-      <c r="V9" s="95">
+      <c r="V9" s="77">
         <v>10</v>
       </c>
     </row>
@@ -13682,10 +13682,10 @@
       <c r="T10" s="37">
         <v>20</v>
       </c>
-      <c r="U10" s="96">
+      <c r="U10" s="78">
         <v>20</v>
       </c>
-      <c r="V10" s="96">
+      <c r="V10" s="78">
         <v>20</v>
       </c>
     </row>
@@ -13750,10 +13750,10 @@
       <c r="T11" s="36">
         <v>21</v>
       </c>
-      <c r="U11" s="95">
+      <c r="U11" s="77">
         <v>21</v>
       </c>
-      <c r="V11" s="95">
+      <c r="V11" s="77">
         <v>21</v>
       </c>
     </row>
@@ -13818,10 +13818,10 @@
       <c r="T12" s="38">
         <v>5</v>
       </c>
-      <c r="U12" s="97">
+      <c r="U12" s="79">
         <v>5</v>
       </c>
-      <c r="V12" s="97">
+      <c r="V12" s="79">
         <v>5</v>
       </c>
     </row>
@@ -13886,10 +13886,10 @@
       <c r="T13" s="36">
         <v>19</v>
       </c>
-      <c r="U13" s="95">
+      <c r="U13" s="77">
         <v>19</v>
       </c>
-      <c r="V13" s="95">
+      <c r="V13" s="77">
         <v>19</v>
       </c>
     </row>
@@ -13954,10 +13954,10 @@
       <c r="T14" s="38">
         <v>21</v>
       </c>
-      <c r="U14" s="97">
+      <c r="U14" s="79">
         <v>21</v>
       </c>
-      <c r="V14" s="97">
+      <c r="V14" s="79">
         <v>21</v>
       </c>
     </row>
@@ -14022,10 +14022,10 @@
       <c r="T15" s="39">
         <v>25</v>
       </c>
-      <c r="U15" s="95">
+      <c r="U15" s="77">
         <v>25</v>
       </c>
-      <c r="V15" s="95">
+      <c r="V15" s="77">
         <v>25</v>
       </c>
     </row>
@@ -14090,10 +14090,10 @@
       <c r="T16" s="37">
         <v>20</v>
       </c>
-      <c r="U16" s="97">
+      <c r="U16" s="79">
         <v>20</v>
       </c>
-      <c r="V16" s="97">
+      <c r="V16" s="79">
         <v>20</v>
       </c>
     </row>
@@ -14158,10 +14158,10 @@
       <c r="T17" s="36">
         <v>24</v>
       </c>
-      <c r="U17" s="98">
+      <c r="U17" s="80">
         <v>24</v>
       </c>
-      <c r="V17" s="98">
+      <c r="V17" s="80">
         <v>24</v>
       </c>
     </row>
@@ -14226,10 +14226,10 @@
       <c r="T18" s="38">
         <v>20</v>
       </c>
-      <c r="U18" s="97">
+      <c r="U18" s="79">
         <v>20</v>
       </c>
-      <c r="V18" s="97">
+      <c r="V18" s="79">
         <v>20</v>
       </c>
     </row>
@@ -14294,10 +14294,10 @@
       <c r="T19" s="36">
         <v>19</v>
       </c>
-      <c r="U19" s="95">
+      <c r="U19" s="77">
         <v>19</v>
       </c>
-      <c r="V19" s="95">
+      <c r="V19" s="77">
         <v>19</v>
       </c>
     </row>
@@ -14362,10 +14362,10 @@
       <c r="T20" s="38">
         <v>23</v>
       </c>
-      <c r="U20" s="99">
+      <c r="U20" s="81">
         <v>24</v>
       </c>
-      <c r="V20" s="99">
+      <c r="V20" s="81">
         <v>24</v>
       </c>
     </row>
@@ -14430,10 +14430,10 @@
       <c r="T21" s="39">
         <v>27</v>
       </c>
-      <c r="U21" s="100">
+      <c r="U21" s="82">
         <v>27</v>
       </c>
-      <c r="V21" s="100">
+      <c r="V21" s="82">
         <v>27</v>
       </c>
     </row>
@@ -14498,10 +14498,10 @@
       <c r="T22" s="38">
         <v>24</v>
       </c>
-      <c r="U22" s="99">
+      <c r="U22" s="81">
         <v>24</v>
       </c>
-      <c r="V22" s="99">
+      <c r="V22" s="81">
         <v>24</v>
       </c>
     </row>
@@ -14566,10 +14566,10 @@
       <c r="T23" s="39">
         <v>23</v>
       </c>
-      <c r="U23" s="95">
+      <c r="U23" s="77">
         <v>23</v>
       </c>
-      <c r="V23" s="95">
+      <c r="V23" s="77">
         <v>23</v>
       </c>
     </row>
@@ -14634,10 +14634,10 @@
       <c r="T24" s="38">
         <v>17</v>
       </c>
-      <c r="U24" s="97">
+      <c r="U24" s="79">
         <v>17</v>
       </c>
-      <c r="V24" s="97">
+      <c r="V24" s="79">
         <v>17</v>
       </c>
     </row>
@@ -14702,10 +14702,10 @@
       <c r="T25" s="40">
         <v>22</v>
       </c>
-      <c r="U25" s="95">
+      <c r="U25" s="77">
         <v>22</v>
       </c>
-      <c r="V25" s="95">
+      <c r="V25" s="77">
         <v>22</v>
       </c>
     </row>
@@ -14770,10 +14770,10 @@
       <c r="T26" s="41">
         <v>8</v>
       </c>
-      <c r="U26" s="99">
+      <c r="U26" s="81">
         <v>8</v>
       </c>
-      <c r="V26" s="99">
+      <c r="V26" s="81">
         <v>8</v>
       </c>
     </row>
@@ -14838,10 +14838,10 @@
       <c r="T27" s="36">
         <v>10</v>
       </c>
-      <c r="U27" s="98">
+      <c r="U27" s="80">
         <v>10</v>
       </c>
-      <c r="V27" s="98">
+      <c r="V27" s="80">
         <v>10</v>
       </c>
     </row>
@@ -14906,10 +14906,10 @@
       <c r="T28" s="38">
         <v>21</v>
       </c>
-      <c r="U28" s="99">
+      <c r="U28" s="81">
         <v>21</v>
       </c>
-      <c r="V28" s="99">
+      <c r="V28" s="81">
         <v>21</v>
       </c>
     </row>
@@ -14974,10 +14974,10 @@
       <c r="T29" s="36">
         <v>21</v>
       </c>
-      <c r="U29" s="98">
+      <c r="U29" s="80">
         <v>21</v>
       </c>
-      <c r="V29" s="98">
+      <c r="V29" s="80">
         <v>21</v>
       </c>
     </row>
@@ -15042,10 +15042,10 @@
       <c r="T30" s="38">
         <v>17</v>
       </c>
-      <c r="U30" s="99">
+      <c r="U30" s="81">
         <v>17</v>
       </c>
-      <c r="V30" s="99">
+      <c r="V30" s="81">
         <v>17</v>
       </c>
     </row>
@@ -15110,10 +15110,10 @@
       <c r="T31" s="36">
         <v>16</v>
       </c>
-      <c r="U31" s="95">
+      <c r="U31" s="77">
         <v>16</v>
       </c>
-      <c r="V31" s="95">
+      <c r="V31" s="77">
         <v>16</v>
       </c>
     </row>
@@ -15178,10 +15178,10 @@
       <c r="T32" s="38">
         <v>21</v>
       </c>
-      <c r="U32" s="99">
+      <c r="U32" s="81">
         <v>21</v>
       </c>
-      <c r="V32" s="99">
+      <c r="V32" s="81">
         <v>21</v>
       </c>
     </row>
@@ -15246,10 +15246,10 @@
       <c r="T33" s="36">
         <v>15</v>
       </c>
-      <c r="U33" s="95">
+      <c r="U33" s="77">
         <v>15</v>
       </c>
-      <c r="V33" s="95">
+      <c r="V33" s="77">
         <v>15</v>
       </c>
     </row>
@@ -15314,10 +15314,10 @@
       <c r="T34" s="38">
         <v>25</v>
       </c>
-      <c r="U34" s="99">
+      <c r="U34" s="81">
         <v>25</v>
       </c>
-      <c r="V34" s="99">
+      <c r="V34" s="81">
         <v>25</v>
       </c>
     </row>
@@ -15382,10 +15382,10 @@
       <c r="T35" s="36">
         <v>23</v>
       </c>
-      <c r="U35" s="98">
+      <c r="U35" s="80">
         <v>23</v>
       </c>
-      <c r="V35" s="98">
+      <c r="V35" s="80">
         <v>23</v>
       </c>
     </row>
@@ -15450,10 +15450,10 @@
       <c r="T36" s="38">
         <v>23</v>
       </c>
-      <c r="U36" s="99">
+      <c r="U36" s="81">
         <v>23</v>
       </c>
-      <c r="V36" s="99">
+      <c r="V36" s="81">
         <v>23</v>
       </c>
     </row>
@@ -15518,10 +15518,10 @@
       <c r="T37" s="36">
         <v>20</v>
       </c>
-      <c r="U37" s="98">
+      <c r="U37" s="80">
         <v>20</v>
       </c>
-      <c r="V37" s="98">
+      <c r="V37" s="80">
         <v>20</v>
       </c>
     </row>
@@ -15586,10 +15586,10 @@
       <c r="T38" s="38">
         <v>22</v>
       </c>
-      <c r="U38" s="99">
+      <c r="U38" s="81">
         <v>22</v>
       </c>
-      <c r="V38" s="99">
+      <c r="V38" s="81">
         <v>22</v>
       </c>
     </row>
@@ -15654,10 +15654,10 @@
       <c r="T39" s="36">
         <v>21</v>
       </c>
-      <c r="U39" s="95">
+      <c r="U39" s="77">
         <v>21</v>
       </c>
-      <c r="V39" s="95">
+      <c r="V39" s="77">
         <v>21</v>
       </c>
     </row>
@@ -15722,10 +15722,10 @@
       <c r="T40" s="38">
         <v>25</v>
       </c>
-      <c r="U40" s="99">
+      <c r="U40" s="81">
         <v>25</v>
       </c>
-      <c r="V40" s="99">
+      <c r="V40" s="81">
         <v>25</v>
       </c>
     </row>
@@ -15790,10 +15790,10 @@
       <c r="T41" s="36">
         <v>8</v>
       </c>
-      <c r="U41" s="95">
+      <c r="U41" s="77">
         <v>8</v>
       </c>
-      <c r="V41" s="95">
+      <c r="V41" s="77">
         <v>7.7</v>
       </c>
     </row>
@@ -15858,10 +15858,10 @@
       <c r="T42" s="38">
         <v>18</v>
       </c>
-      <c r="U42" s="99">
+      <c r="U42" s="81">
         <v>18</v>
       </c>
-      <c r="V42" s="99">
+      <c r="V42" s="81">
         <v>18</v>
       </c>
     </row>
@@ -15926,29 +15926,29 @@
       <c r="T43" s="36">
         <v>20</v>
       </c>
-      <c r="U43" s="95">
+      <c r="U43" s="77">
         <v>20</v>
       </c>
-      <c r="V43" s="95">
+      <c r="V43" s="77">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
